--- a/newwisedata/testssh_ans/mcmc9_D.xlsx
+++ b/newwisedata/testssh_ans/mcmc9_D.xlsx
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>599.4</v>
+        <v>2058.3</v>
       </c>
       <c r="D8" t="n">
         <v>2938</v>
